--- a/data/AMS_DDS_Conventies.xlsx
+++ b/data/AMS_DDS_Conventies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://snbv-my.sharepoint.com/personal/arjen_rademaker_schiphol_nl/Documents/Bureaublad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="405" documentId="8_{797709F9-9F51-4252-9A44-4503CF276D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{217042C8-5C98-4C5B-80B8-825BC7C7E11D}"/>
+  <xr:revisionPtr revIDLastSave="406" documentId="8_{797709F9-9F51-4252-9A44-4503CF276D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32DE51DF-FFE2-4565-80A2-6B55FCBDA261}"/>
   <bookViews>
-    <workbookView xWindow="86280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2D98358A-0058-41E3-9878-D5F4C4F5CB06}"/>
+    <workbookView xWindow="89145" yWindow="2745" windowWidth="21600" windowHeight="10920" activeTab="1" xr2:uid="{2D98358A-0058-41E3-9878-D5F4C4F5CB06}"/>
   </bookViews>
   <sheets>
     <sheet name="Conventies" sheetId="1" r:id="rId1"/>
@@ -899,7 +899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA06F8D5-91AC-47C4-8305-7327008941AA}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1585,7 +1585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{749A44F2-34BF-4A35-9B03-0840393CC5C7}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1608,7 +1608,7 @@
         <v>104</v>
       </c>
       <c r="B2" s="5">
-        <v>46076</v>
+        <v>46080</v>
       </c>
     </row>
   </sheetData>

--- a/data/AMS_DDS_Conventies.xlsx
+++ b/data/AMS_DDS_Conventies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://snbv-my.sharepoint.com/personal/arjen_rademaker_schiphol_nl/Documents/Bureaublad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="406" documentId="8_{797709F9-9F51-4252-9A44-4503CF276D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32DE51DF-FFE2-4565-80A2-6B55FCBDA261}"/>
+  <xr:revisionPtr revIDLastSave="407" documentId="8_{797709F9-9F51-4252-9A44-4503CF276D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A154ACE3-30A0-482E-B428-A8677B82A575}"/>
   <bookViews>
     <workbookView xWindow="89145" yWindow="2745" windowWidth="21600" windowHeight="10920" activeTab="1" xr2:uid="{2D98358A-0058-41E3-9878-D5F4C4F5CB06}"/>
   </bookViews>
@@ -1586,7 +1586,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1608,7 +1608,7 @@
         <v>104</v>
       </c>
       <c r="B2" s="5">
-        <v>46080</v>
+        <v>46081</v>
       </c>
     </row>
   </sheetData>

--- a/data/AMS_DDS_Conventies.xlsx
+++ b/data/AMS_DDS_Conventies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://snbv-my.sharepoint.com/personal/arjen_rademaker_schiphol_nl/Documents/Bureaublad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="407" documentId="8_{797709F9-9F51-4252-9A44-4503CF276D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A154ACE3-30A0-482E-B428-A8677B82A575}"/>
+  <xr:revisionPtr revIDLastSave="408" documentId="8_{797709F9-9F51-4252-9A44-4503CF276D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3229DDAE-DABA-403E-AA76-A071B99437FF}"/>
   <bookViews>
-    <workbookView xWindow="89145" yWindow="2745" windowWidth="21600" windowHeight="10920" activeTab="1" xr2:uid="{2D98358A-0058-41E3-9878-D5F4C4F5CB06}"/>
+    <workbookView xWindow="89145" yWindow="2745" windowWidth="21600" windowHeight="10920" xr2:uid="{2D98358A-0058-41E3-9878-D5F4C4F5CB06}"/>
   </bookViews>
   <sheets>
     <sheet name="Conventies" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="131">
   <si>
     <t>134^HNK</t>
   </si>
@@ -102,9 +102,6 @@
     <t>Hellingbaan 010, T3-00-RHB010</t>
   </si>
   <si>
-    <t>Glasplaat RT004, EP-01-RRP004</t>
-  </si>
-  <si>
     <t>^Hoofdverdeler, [[aascode]], .*$</t>
   </si>
   <si>
@@ -430,6 +427,9 @@
   </si>
   <si>
     <t>RT[nummer van roltrap waar het glas zich in bevindt]</t>
+  </si>
+  <si>
+    <t>Glasplaat, RT004, EP-01-RRP004</t>
   </si>
 </sst>
 </file>
@@ -899,11 +899,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA06F8D5-91AC-47C4-8305-7327008941AA}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -923,19 +923,19 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>15</v>
@@ -944,7 +944,7 @@
         <v>17</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>16</v>
@@ -952,42 +952,42 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
@@ -996,94 +996,94 @@
         <v>1</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>18</v>
@@ -1091,28 +1091,28 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>19</v>
@@ -1120,28 +1120,28 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>20</v>
@@ -1149,428 +1149,428 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="H20" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1585,7 +1585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{749A44F2-34BF-4A35-9B03-0840393CC5C7}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -1597,15 +1597,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" s="5">
         <v>46081</v>

--- a/data/AMS_DDS_Conventies.xlsx
+++ b/data/AMS_DDS_Conventies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://snbv-my.sharepoint.com/personal/arjen_rademaker_schiphol_nl/Documents/Bureaublad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="408" documentId="8_{797709F9-9F51-4252-9A44-4503CF276D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3229DDAE-DABA-403E-AA76-A071B99437FF}"/>
+  <xr:revisionPtr revIDLastSave="409" documentId="8_{797709F9-9F51-4252-9A44-4503CF276D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EBC7E5D-5B87-45C7-A9DE-D0F5EB25C912}"/>
   <bookViews>
-    <workbookView xWindow="89145" yWindow="2745" windowWidth="21600" windowHeight="10920" xr2:uid="{2D98358A-0058-41E3-9878-D5F4C4F5CB06}"/>
+    <workbookView xWindow="89145" yWindow="2745" windowWidth="21600" windowHeight="10920" activeTab="1" xr2:uid="{2D98358A-0058-41E3-9878-D5F4C4F5CB06}"/>
   </bookViews>
   <sheets>
     <sheet name="Conventies" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="131">
   <si>
     <t>134^HNK</t>
   </si>
@@ -899,7 +899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA06F8D5-91AC-47C4-8305-7327008941AA}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1585,8 +1585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{749A44F2-34BF-4A35-9B03-0840393CC5C7}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1608,7 +1608,7 @@
         <v>103</v>
       </c>
       <c r="B2" s="5">
-        <v>46081</v>
+        <v>46080</v>
       </c>
     </row>
   </sheetData>

--- a/data/AMS_DDS_Conventies.xlsx
+++ b/data/AMS_DDS_Conventies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://snbv-my.sharepoint.com/personal/arjen_rademaker_schiphol_nl/Documents/Bureaublad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="409" documentId="8_{797709F9-9F51-4252-9A44-4503CF276D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EBC7E5D-5B87-45C7-A9DE-D0F5EB25C912}"/>
+  <xr:revisionPtr revIDLastSave="452" documentId="8_{797709F9-9F51-4252-9A44-4503CF276D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5917623-1BED-4EB6-87CB-8BE524AF07FA}"/>
   <bookViews>
-    <workbookView xWindow="89145" yWindow="2745" windowWidth="21600" windowHeight="10920" activeTab="1" xr2:uid="{2D98358A-0058-41E3-9878-D5F4C4F5CB06}"/>
+    <workbookView xWindow="89145" yWindow="2745" windowWidth="21600" windowHeight="10920" xr2:uid="{2D98358A-0058-41E3-9878-D5F4C4F5CB06}"/>
   </bookViews>
   <sheets>
     <sheet name="Conventies" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="165">
   <si>
     <t>134^HNK</t>
   </si>
@@ -430,6 +430,108 @@
   </si>
   <si>
     <t>Glasplaat, RT004, EP-01-RRP004</t>
+  </si>
+  <si>
+    <t>AspiratiemelderASD</t>
+  </si>
+  <si>
+    <t>VideoSmokeDetectie</t>
+  </si>
+  <si>
+    <t>LineaireOptischeDetectie</t>
+  </si>
+  <si>
+    <t>LineaireThermischeDetectie</t>
+  </si>
+  <si>
+    <t>Vlammenmelder</t>
+  </si>
+  <si>
+    <t>Handbrandmelder</t>
+  </si>
+  <si>
+    <t>AkoestischeEnOptischeSignaalgevers</t>
+  </si>
+  <si>
+    <t>ThermischeMelder</t>
+  </si>
+  <si>
+    <t>MultisensorPuntmelder</t>
+  </si>
+  <si>
+    <t>IOModule</t>
+  </si>
+  <si>
+    <t>ExterneEnergievoorziening-BrandmeldinstallatieVeldcomponent</t>
+  </si>
+  <si>
+    <t>NevenIndicator</t>
+  </si>
+  <si>
+    <t>NevenpaneelBrandmeldcentrale</t>
+  </si>
+  <si>
+    <t>BMI</t>
+  </si>
+  <si>
+    <t>Brandmeldinstallatie</t>
+  </si>
+  <si>
+    <t>^B\d{1,4}$</t>
+  </si>
+  <si>
+    <t>B[Brandmeldcentralennr]</t>
+  </si>
+  <si>
+    <t>B1063</t>
+  </si>
+  <si>
+    <t>^[A-Za-z0-9 -]+,[[aascode]],.*</t>
+  </si>
+  <si>
+    <t>[IRI], [AasCode], [Ruimtenummer]</t>
+  </si>
+  <si>
+    <t>Brandmeldinstallatie, B1063, T2-01-R2011</t>
+  </si>
+  <si>
+    <t>AspiratiemelderASD, B1063, T2-01-R2011</t>
+  </si>
+  <si>
+    <t>VideoSmokeDetectie, B1063, T2-01-R2011</t>
+  </si>
+  <si>
+    <t>LineaireOptischeDetectie, B1063, T2-01-R2011</t>
+  </si>
+  <si>
+    <t>LineaireThermischeDetectie, B1063, T2-01-R2011</t>
+  </si>
+  <si>
+    <t>Vlammenmelder, B1063, T2-01-R2011</t>
+  </si>
+  <si>
+    <t>Handbrandmelder, B1063, T2-01-R2011</t>
+  </si>
+  <si>
+    <t>AkoestischeEnOptischeSignaalgevers, B1063, T2-01-R2011</t>
+  </si>
+  <si>
+    <t>ThermischeMelder, B1063, T2-01-R2011</t>
+  </si>
+  <si>
+    <t>MultisensorPuntmelder, B1063, T2-01-R2011</t>
+  </si>
+  <si>
+    <t>IOModule, B1063, T2-01-R2011</t>
+  </si>
+  <si>
+    <t>ExterneEnergievoorziening-BrandmeldinstallatieVeldcomponent, B1063, T2-01-R2011</t>
+  </si>
+  <si>
+    <t>NevenIndicator, B1063, T2-01-R2011</t>
+  </si>
+  <si>
+    <t>NevenpaneelBrandmeldcentrale, B1063, T2-01-R2011</t>
   </si>
 </sst>
 </file>
@@ -563,8 +665,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8BE26161-F795-4918-987F-8C9B910BE80A}" name="Tabel1" displayName="Tabel1" ref="A1:I23" totalsRowShown="0">
-  <autoFilter ref="A1:I23" xr:uid="{8BE26161-F795-4918-987F-8C9B910BE80A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8BE26161-F795-4918-987F-8C9B910BE80A}" name="Tabel1" displayName="Tabel1" ref="A1:I37" totalsRowShown="0">
+  <autoFilter ref="A1:I37" xr:uid="{8BE26161-F795-4918-987F-8C9B910BE80A}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{500614DB-F066-4803-9D7F-D1DF260731DF}" name="Assetgroep"/>
     <tableColumn id="6" xr3:uid="{B187B50A-9B2E-4EB0-AB39-0E7B1305F4A0}" name="IRI (o.b.v. DDS 3.5)"/>
@@ -897,13 +999,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA06F8D5-91AC-47C4-8305-7327008941AA}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="H24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomRight" activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1573,6 +1675,412 @@
         <v>66</v>
       </c>
     </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>144</v>
+      </c>
+      <c r="B24" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>144</v>
+      </c>
+      <c r="B25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>144</v>
+      </c>
+      <c r="B27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>144</v>
+      </c>
+      <c r="B29" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>144</v>
+      </c>
+      <c r="B30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>144</v>
+      </c>
+      <c r="B32" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>144</v>
+      </c>
+      <c r="B33" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
+        <v>144</v>
+      </c>
+      <c r="B34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>144</v>
+      </c>
+      <c r="B35" t="s">
+        <v>141</v>
+      </c>
+      <c r="C35" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>144</v>
+      </c>
+      <c r="B36" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>144</v>
+      </c>
+      <c r="B37" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -1585,7 +2093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{749A44F2-34BF-4A35-9B03-0840393CC5C7}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/data/AMS_DDS_Conventies.xlsx
+++ b/data/AMS_DDS_Conventies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://snbv-my.sharepoint.com/personal/arjen_rademaker_schiphol_nl/Documents/Bureaublad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="452" documentId="8_{797709F9-9F51-4252-9A44-4503CF276D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5917623-1BED-4EB6-87CB-8BE524AF07FA}"/>
+  <xr:revisionPtr revIDLastSave="458" documentId="8_{797709F9-9F51-4252-9A44-4503CF276D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85F159EC-3718-4B92-B948-9F17D56FD0F8}"/>
   <bookViews>
-    <workbookView xWindow="89145" yWindow="2745" windowWidth="21600" windowHeight="10920" xr2:uid="{2D98358A-0058-41E3-9878-D5F4C4F5CB06}"/>
+    <workbookView xWindow="86280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2D98358A-0058-41E3-9878-D5F4C4F5CB06}"/>
   </bookViews>
   <sheets>
     <sheet name="Conventies" sheetId="1" r:id="rId1"/>
@@ -69,21 +69,9 @@
     <t>^\d{1,3}(-\d{1,2})?\^[A-Z]{1,3}\d{0,2}$</t>
   </si>
   <si>
-    <t>^L\d{3}$</t>
-  </si>
-  <si>
-    <t>^RP\d{3}$</t>
-  </si>
-  <si>
-    <t>^HB\d{3}$</t>
-  </si>
-  <si>
     <t>^G\d{5}$</t>
   </si>
   <si>
-    <t>^RT\d{3}$</t>
-  </si>
-  <si>
     <t>AasCode - Voorbeeld</t>
   </si>
   <si>
@@ -532,6 +520,18 @@
   </si>
   <si>
     <t>NevenpaneelBrandmeldcentrale, B1063, T2-01-R2011</t>
+  </si>
+  <si>
+    <t>^L\d{1,4}$</t>
+  </si>
+  <si>
+    <t>^RT\d{1,4}$</t>
+  </si>
+  <si>
+    <t>^RP\d{1,4}$</t>
+  </si>
+  <si>
+    <t>^HB\d{1,4}$</t>
   </si>
 </sst>
 </file>
@@ -1002,10 +1002,10 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="H24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I41" sqref="I41"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1018,78 +1018,78 @@
     <col min="6" max="6" width="44.15625" style="1" customWidth="1"/>
     <col min="7" max="7" width="37.26171875" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="55.68359375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49.83984375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="70.83984375" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="81.26171875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="41.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
@@ -1098,987 +1098,987 @@
         <v>1</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C13" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="H14" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="H15" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="F21" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C22" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="F22" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
+        <v>140</v>
+      </c>
+      <c r="B24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B24" t="s">
+      <c r="G24" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C24" t="s">
-        <v>108</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="H24" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="I24" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B25" t="s">
-        <v>131</v>
-      </c>
-      <c r="C25" t="s">
-        <v>108</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="G25" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F25" s="1" t="s">
+      <c r="I25" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B26" t="s">
-        <v>132</v>
-      </c>
-      <c r="C26" t="s">
-        <v>108</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="G26" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G26" s="3" t="s">
+      <c r="I26" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B27" t="s">
-        <v>133</v>
-      </c>
-      <c r="C27" t="s">
-        <v>108</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="G27" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H27" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="H27" s="3" t="s">
+      <c r="I27" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B28" t="s">
-        <v>134</v>
-      </c>
-      <c r="C28" t="s">
-        <v>108</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="G28" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>150</v>
-      </c>
       <c r="I28" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
+        <v>140</v>
+      </c>
+      <c r="B29" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B29" t="s">
-        <v>135</v>
-      </c>
-      <c r="C29" t="s">
-        <v>108</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="G29" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>150</v>
-      </c>
       <c r="I29" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
+        <v>140</v>
+      </c>
+      <c r="B30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B30" t="s">
-        <v>136</v>
-      </c>
-      <c r="C30" t="s">
-        <v>108</v>
-      </c>
-      <c r="D30" s="1" t="s">
+      <c r="G30" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H30" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>150</v>
-      </c>
       <c r="I30" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
+        <v>140</v>
+      </c>
+      <c r="B31" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B31" t="s">
-        <v>137</v>
-      </c>
-      <c r="C31" t="s">
-        <v>108</v>
-      </c>
-      <c r="D31" s="1" t="s">
+      <c r="G31" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H31" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>150</v>
-      </c>
       <c r="I31" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
+        <v>140</v>
+      </c>
+      <c r="B32" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B32" t="s">
-        <v>138</v>
-      </c>
-      <c r="C32" t="s">
-        <v>108</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="G32" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H32" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>150</v>
-      </c>
       <c r="I32" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
+        <v>140</v>
+      </c>
+      <c r="B33" t="s">
+        <v>135</v>
+      </c>
+      <c r="C33" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B33" t="s">
-        <v>139</v>
-      </c>
-      <c r="C33" t="s">
-        <v>108</v>
-      </c>
-      <c r="D33" s="1" t="s">
+      <c r="G33" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H33" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>150</v>
-      </c>
       <c r="I33" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
+        <v>140</v>
+      </c>
+      <c r="B34" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B34" t="s">
-        <v>140</v>
-      </c>
-      <c r="C34" t="s">
-        <v>108</v>
-      </c>
-      <c r="D34" s="1" t="s">
+      <c r="G34" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H34" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>150</v>
-      </c>
       <c r="I34" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
+        <v>140</v>
+      </c>
+      <c r="B35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B35" t="s">
-        <v>141</v>
-      </c>
-      <c r="C35" t="s">
-        <v>108</v>
-      </c>
-      <c r="D35" s="1" t="s">
+      <c r="G35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H35" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>150</v>
-      </c>
       <c r="I35" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
+        <v>140</v>
+      </c>
+      <c r="B36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B36" t="s">
-        <v>142</v>
-      </c>
-      <c r="C36" t="s">
-        <v>108</v>
-      </c>
-      <c r="D36" s="1" t="s">
+      <c r="G36" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H36" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>150</v>
-      </c>
       <c r="I36" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
+        <v>140</v>
+      </c>
+      <c r="B37" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B37" t="s">
-        <v>143</v>
-      </c>
-      <c r="C37" t="s">
-        <v>108</v>
-      </c>
-      <c r="D37" s="1" t="s">
+      <c r="G37" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H37" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>150</v>
-      </c>
       <c r="I37" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -2105,15 +2105,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B2" s="5">
         <v>46080</v>
